--- a/app/price/Прайс_сетка_ochagh.com.ua_рабица.xlsx
+++ b/app/price/Прайс_сетка_ochagh.com.ua_рабица.xlsx
@@ -699,7 +699,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,14 +732,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1144,6 +1138,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1212,33 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="24" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -2415,7 +2409,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="A58:XFD58"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2510,7 +2504,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="64" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2529,7 +2523,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="93" t="s">
+      <c r="O5" s="65" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2570,34 +2564,34 @@
       <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -2621,8 +2615,8 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2638,12 +2632,12 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:16" ht="78" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="58" t="s">
         <v>2</v>
       </c>
@@ -2674,7 +2668,7 @@
       <c r="N12" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="62" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2730,11 +2724,11 @@
       <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="79"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="4"/>
       <c r="G15" s="39" t="s">
         <v>35</v>
@@ -2752,25 +2746,23 @@
       <c r="L15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="86">
-        <f>O15*1.15</f>
-        <v>847.55</v>
-      </c>
-      <c r="N15" s="87">
-        <f>O15*1.1</f>
-        <v>810.7</v>
-      </c>
-      <c r="O15" s="88">
-        <v>737</v>
+      <c r="M15" s="63">
+        <v>907.5</v>
+      </c>
+      <c r="N15" s="70">
+        <v>834.9</v>
+      </c>
+      <c r="O15" s="66">
+        <v>726</v>
       </c>
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="76"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="4"/>
       <c r="G16" s="39" t="s">
         <v>35</v>
@@ -2788,25 +2780,23 @@
       <c r="L16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="86">
-        <f t="shared" ref="M16:M58" si="0">O16*1.15</f>
-        <v>331.31499999999994</v>
-      </c>
-      <c r="N16" s="87">
-        <f t="shared" ref="N16:N58" si="1">O16*1.1</f>
-        <v>316.90999999999997</v>
-      </c>
-      <c r="O16" s="88">
-        <v>288.09999999999997</v>
+      <c r="M16" s="63">
+        <v>354.75</v>
+      </c>
+      <c r="N16" s="70">
+        <v>326.37</v>
+      </c>
+      <c r="O16" s="66">
+        <v>283.8</v>
       </c>
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="76"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="4"/>
       <c r="G17" s="39" t="s">
         <v>35</v>
@@ -2824,25 +2814,23 @@
       <c r="L17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="86">
-        <f t="shared" si="0"/>
-        <v>423.77499999999998</v>
-      </c>
-      <c r="N17" s="87">
-        <f t="shared" si="1"/>
-        <v>405.35</v>
-      </c>
-      <c r="O17" s="88">
-        <v>368.5</v>
+      <c r="M17" s="63">
+        <v>453.75</v>
+      </c>
+      <c r="N17" s="70">
+        <v>417.45</v>
+      </c>
+      <c r="O17" s="66">
+        <v>363</v>
       </c>
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="76"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="4"/>
       <c r="G18" s="39" t="s">
         <v>35</v>
@@ -2860,25 +2848,23 @@
       <c r="L18" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="86">
-        <f t="shared" si="0"/>
-        <v>500.82499999999999</v>
-      </c>
-      <c r="N18" s="87">
-        <f t="shared" si="1"/>
-        <v>479.05</v>
-      </c>
-      <c r="O18" s="88">
-        <v>435.5</v>
+      <c r="M18" s="63">
+        <v>536.25</v>
+      </c>
+      <c r="N18" s="70">
+        <v>493.34999999999997</v>
+      </c>
+      <c r="O18" s="66">
+        <v>429</v>
       </c>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="76"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="4"/>
       <c r="G19" s="39" t="s">
         <v>35</v>
@@ -2896,25 +2882,23 @@
       <c r="L19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="86">
-        <f t="shared" si="0"/>
-        <v>616.4</v>
-      </c>
-      <c r="N19" s="87">
-        <f t="shared" si="1"/>
-        <v>589.6</v>
-      </c>
-      <c r="O19" s="88">
-        <v>536</v>
+      <c r="M19" s="63">
+        <v>660</v>
+      </c>
+      <c r="N19" s="70">
+        <v>607.19999999999993</v>
+      </c>
+      <c r="O19" s="66">
+        <v>528</v>
       </c>
       <c r="P19" s="33"/>
     </row>
     <row r="20" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="76"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="4"/>
       <c r="G20" s="39" t="s">
         <v>35</v>
@@ -2932,25 +2916,23 @@
       <c r="L20" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="86">
-        <f t="shared" si="0"/>
-        <v>654.92499999999995</v>
-      </c>
-      <c r="N20" s="87">
-        <f t="shared" si="1"/>
-        <v>626.45000000000005</v>
-      </c>
-      <c r="O20" s="88">
-        <v>569.5</v>
+      <c r="M20" s="63">
+        <v>701.25</v>
+      </c>
+      <c r="N20" s="70">
+        <v>645.15</v>
+      </c>
+      <c r="O20" s="66">
+        <v>561</v>
       </c>
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="76"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="4"/>
       <c r="G21" s="44" t="s">
         <v>35</v>
@@ -2968,25 +2950,23 @@
       <c r="L21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="86">
-        <f t="shared" si="0"/>
-        <v>695.75</v>
-      </c>
-      <c r="N21" s="87">
-        <f t="shared" si="1"/>
-        <v>665.5</v>
-      </c>
-      <c r="O21" s="89">
-        <v>605</v>
+      <c r="M21" s="63">
+        <v>715</v>
+      </c>
+      <c r="N21" s="70">
+        <v>657.8</v>
+      </c>
+      <c r="O21" s="67">
+        <v>572</v>
       </c>
       <c r="P21" s="33"/>
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="76"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="4">
         <v>631</v>
       </c>
@@ -3006,25 +2986,23 @@
       <c r="L22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="86">
-        <f t="shared" si="0"/>
-        <v>271.97499999999997</v>
-      </c>
-      <c r="N22" s="87">
-        <f t="shared" si="1"/>
-        <v>260.15000000000003</v>
-      </c>
-      <c r="O22" s="89">
-        <v>236.5</v>
+      <c r="M22" s="63">
+        <v>279.5</v>
+      </c>
+      <c r="N22" s="70">
+        <v>257.14</v>
+      </c>
+      <c r="O22" s="67">
+        <v>223.6</v>
       </c>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="76"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="4">
         <v>631</v>
       </c>
@@ -3044,25 +3022,23 @@
       <c r="L23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="86">
-        <f t="shared" si="0"/>
-        <v>347.875</v>
-      </c>
-      <c r="N23" s="87">
-        <f t="shared" si="1"/>
-        <v>332.75</v>
-      </c>
-      <c r="O23" s="89">
-        <v>302.5</v>
+      <c r="M23" s="63">
+        <v>357.5</v>
+      </c>
+      <c r="N23" s="70">
+        <v>328.9</v>
+      </c>
+      <c r="O23" s="67">
+        <v>286</v>
       </c>
       <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="76"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="4">
         <v>631</v>
       </c>
@@ -3082,25 +3058,23 @@
       <c r="L24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="86">
-        <f t="shared" si="0"/>
-        <v>411.12499999999994</v>
-      </c>
-      <c r="N24" s="87">
-        <f t="shared" si="1"/>
-        <v>393.25000000000006</v>
-      </c>
-      <c r="O24" s="89">
-        <v>357.5</v>
+      <c r="M24" s="63">
+        <v>422.5</v>
+      </c>
+      <c r="N24" s="70">
+        <v>388.7</v>
+      </c>
+      <c r="O24" s="67">
+        <v>338</v>
       </c>
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="76"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="4">
         <v>631</v>
       </c>
@@ -3120,25 +3094,23 @@
       <c r="L25" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="86">
-        <f t="shared" si="0"/>
-        <v>505.99999999999994</v>
-      </c>
-      <c r="N25" s="87">
-        <f t="shared" si="1"/>
-        <v>484.00000000000006</v>
-      </c>
-      <c r="O25" s="89">
-        <v>440</v>
+      <c r="M25" s="63">
+        <v>520</v>
+      </c>
+      <c r="N25" s="70">
+        <v>478.4</v>
+      </c>
+      <c r="O25" s="67">
+        <v>416</v>
       </c>
       <c r="P25" s="33"/>
     </row>
     <row r="26" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="76"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="4"/>
       <c r="G26" s="44" t="s">
         <v>35</v>
@@ -3156,25 +3128,23 @@
       <c r="L26" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="86">
-        <f t="shared" si="0"/>
-        <v>537.625</v>
-      </c>
-      <c r="N26" s="87">
-        <f t="shared" si="1"/>
-        <v>514.25</v>
-      </c>
-      <c r="O26" s="89">
-        <v>467.5</v>
+      <c r="M26" s="63">
+        <v>552.5</v>
+      </c>
+      <c r="N26" s="70">
+        <v>508.29999999999995</v>
+      </c>
+      <c r="O26" s="67">
+        <v>442</v>
       </c>
       <c r="P26" s="33"/>
     </row>
     <row r="27" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="76"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="4"/>
       <c r="G27" s="39" t="s">
         <v>35</v>
@@ -3192,25 +3162,23 @@
       <c r="L27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="86">
-        <f t="shared" si="0"/>
-        <v>269.67499999999995</v>
-      </c>
-      <c r="N27" s="87">
-        <f t="shared" si="1"/>
-        <v>257.95000000000005</v>
-      </c>
-      <c r="O27" s="88">
-        <v>234.5</v>
+      <c r="M27" s="63">
+        <v>288.75</v>
+      </c>
+      <c r="N27" s="70">
+        <v>265.64999999999998</v>
+      </c>
+      <c r="O27" s="66">
+        <v>231</v>
       </c>
       <c r="P27" s="33"/>
     </row>
     <row r="28" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="76"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="4"/>
       <c r="G28" s="39" t="s">
         <v>35</v>
@@ -3228,25 +3196,23 @@
       <c r="L28" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="86">
-        <f t="shared" si="0"/>
-        <v>327.46249999999998</v>
-      </c>
-      <c r="N28" s="87">
-        <f t="shared" si="1"/>
-        <v>313.22500000000002</v>
-      </c>
-      <c r="O28" s="88">
-        <v>284.75</v>
+      <c r="M28" s="63">
+        <v>350.625</v>
+      </c>
+      <c r="N28" s="70">
+        <v>322.57499999999999</v>
+      </c>
+      <c r="O28" s="66">
+        <v>280.5</v>
       </c>
       <c r="P28" s="33"/>
     </row>
     <row r="29" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="76"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="4"/>
       <c r="G29" s="39" t="s">
         <v>35</v>
@@ -3264,25 +3230,23 @@
       <c r="L29" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="86">
-        <f t="shared" si="0"/>
-        <v>385.24999999999994</v>
-      </c>
-      <c r="N29" s="87">
-        <f t="shared" si="1"/>
-        <v>368.50000000000006</v>
-      </c>
-      <c r="O29" s="88">
-        <v>335</v>
+      <c r="M29" s="63">
+        <v>412.5</v>
+      </c>
+      <c r="N29" s="70">
+        <v>379.49999999999994</v>
+      </c>
+      <c r="O29" s="66">
+        <v>330</v>
       </c>
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="76"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="4"/>
       <c r="G30" s="39" t="s">
         <v>35</v>
@@ -3300,25 +3264,23 @@
       <c r="L30" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="86">
-        <f t="shared" si="0"/>
-        <v>462.29999999999995</v>
-      </c>
-      <c r="N30" s="87">
-        <f t="shared" si="1"/>
-        <v>442.20000000000005</v>
-      </c>
-      <c r="O30" s="88">
-        <v>402</v>
+      <c r="M30" s="63">
+        <v>495</v>
+      </c>
+      <c r="N30" s="70">
+        <v>455.4</v>
+      </c>
+      <c r="O30" s="66">
+        <v>396</v>
       </c>
       <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="76"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="4"/>
       <c r="G31" s="39" t="s">
         <v>35</v>
@@ -3336,25 +3298,23 @@
       <c r="L31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="86">
-        <f t="shared" si="0"/>
-        <v>539.34999999999991</v>
-      </c>
-      <c r="N31" s="87">
-        <f t="shared" si="1"/>
-        <v>515.90000000000009</v>
-      </c>
-      <c r="O31" s="88">
-        <v>469</v>
+      <c r="M31" s="63">
+        <v>577.5</v>
+      </c>
+      <c r="N31" s="70">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="O31" s="66">
+        <v>462</v>
       </c>
       <c r="P31" s="33"/>
     </row>
     <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="77"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="4"/>
       <c r="G32" s="44" t="s">
         <v>35</v>
@@ -3372,27 +3332,25 @@
       <c r="L32" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="86">
-        <f t="shared" si="0"/>
-        <v>221.37499999999997</v>
-      </c>
-      <c r="N32" s="87">
-        <f t="shared" si="1"/>
-        <v>211.75000000000003</v>
-      </c>
-      <c r="O32" s="89">
-        <v>192.5</v>
+      <c r="M32" s="63">
+        <v>227.5</v>
+      </c>
+      <c r="N32" s="70">
+        <v>209.29999999999998</v>
+      </c>
+      <c r="O32" s="67">
+        <v>182</v>
       </c>
       <c r="P32" s="33"/>
     </row>
     <row r="33" spans="1:16" s="5" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="4">
@@ -3414,25 +3372,23 @@
       <c r="L33" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M33" s="86">
-        <f t="shared" si="0"/>
-        <v>268.8125</v>
-      </c>
-      <c r="N33" s="87">
-        <f t="shared" si="1"/>
-        <v>257.125</v>
-      </c>
-      <c r="O33" s="89">
-        <v>233.75</v>
+      <c r="M33" s="63">
+        <v>276.25</v>
+      </c>
+      <c r="N33" s="70">
+        <v>254.14999999999998</v>
+      </c>
+      <c r="O33" s="67">
+        <v>221</v>
       </c>
       <c r="P33" s="34"/>
     </row>
     <row r="34" spans="1:16" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="4">
         <v>631</v>
       </c>
@@ -3452,25 +3408,23 @@
       <c r="L34" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="86">
-        <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="N34" s="87">
-        <f t="shared" si="1"/>
-        <v>302.5</v>
-      </c>
-      <c r="O34" s="89">
-        <v>275</v>
+      <c r="M34" s="63">
+        <v>325</v>
+      </c>
+      <c r="N34" s="70">
+        <v>299</v>
+      </c>
+      <c r="O34" s="67">
+        <v>260</v>
       </c>
       <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:16" s="5" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="4">
         <v>631</v>
       </c>
@@ -3490,25 +3444,23 @@
       <c r="L35" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="86">
-        <f t="shared" si="0"/>
-        <v>379.49999999999994</v>
-      </c>
-      <c r="N35" s="87">
-        <f t="shared" si="1"/>
-        <v>363.00000000000006</v>
-      </c>
-      <c r="O35" s="89">
-        <v>330</v>
+      <c r="M35" s="63">
+        <v>390</v>
+      </c>
+      <c r="N35" s="70">
+        <v>358.79999999999995</v>
+      </c>
+      <c r="O35" s="67">
+        <v>312</v>
       </c>
       <c r="P35" s="34"/>
     </row>
     <row r="36" spans="1:16" s="5" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="4"/>
       <c r="G36" s="44" t="s">
         <v>35</v>
@@ -3526,25 +3478,23 @@
       <c r="L36" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="86">
-        <f t="shared" si="0"/>
-        <v>442.74999999999994</v>
-      </c>
-      <c r="N36" s="87">
-        <f t="shared" si="1"/>
-        <v>423.50000000000006</v>
-      </c>
-      <c r="O36" s="89">
-        <v>385</v>
+      <c r="M36" s="63">
+        <v>455</v>
+      </c>
+      <c r="N36" s="70">
+        <v>418.59999999999997</v>
+      </c>
+      <c r="O36" s="67">
+        <v>364</v>
       </c>
       <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16" s="5" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="4"/>
       <c r="G37" s="39" t="s">
         <v>35</v>
@@ -3562,25 +3512,23 @@
       <c r="L37" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="86">
-        <f t="shared" si="0"/>
-        <v>231.14999999999998</v>
-      </c>
-      <c r="N37" s="87">
-        <f t="shared" si="1"/>
-        <v>221.10000000000002</v>
-      </c>
-      <c r="O37" s="88">
-        <v>201</v>
+      <c r="M37" s="63">
+        <v>264</v>
+      </c>
+      <c r="N37" s="70">
+        <v>242.88</v>
+      </c>
+      <c r="O37" s="66">
+        <v>211.20000000000002</v>
       </c>
       <c r="P37" s="34"/>
     </row>
     <row r="38" spans="1:16" s="5" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="4">
         <v>631</v>
       </c>
@@ -3600,25 +3548,23 @@
       <c r="L38" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M38" s="86">
-        <f t="shared" si="0"/>
-        <v>308.2</v>
-      </c>
-      <c r="N38" s="87">
-        <f t="shared" si="1"/>
-        <v>294.8</v>
-      </c>
-      <c r="O38" s="88">
-        <v>268</v>
+      <c r="M38" s="63">
+        <v>330</v>
+      </c>
+      <c r="N38" s="70">
+        <v>303.59999999999997</v>
+      </c>
+      <c r="O38" s="66">
+        <v>264</v>
       </c>
       <c r="P38" s="34"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="6">
         <v>631</v>
       </c>
@@ -3638,25 +3584,23 @@
       <c r="L39" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="86">
-        <f t="shared" si="0"/>
-        <v>346.72499999999997</v>
-      </c>
-      <c r="N39" s="87">
-        <f t="shared" si="1"/>
-        <v>331.65000000000003</v>
-      </c>
-      <c r="O39" s="88">
-        <v>301.5</v>
+      <c r="M39" s="63">
+        <v>400.12499999999994</v>
+      </c>
+      <c r="N39" s="70">
+        <v>368.11499999999995</v>
+      </c>
+      <c r="O39" s="66">
+        <v>320.09999999999997</v>
       </c>
       <c r="P39" s="35"/>
     </row>
     <row r="40" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="6"/>
       <c r="G40" s="39" t="s">
         <v>35</v>
@@ -3674,25 +3618,23 @@
       <c r="L40" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="86">
-        <f t="shared" si="0"/>
-        <v>423.77499999999998</v>
-      </c>
-      <c r="N40" s="87">
-        <f t="shared" si="1"/>
-        <v>405.35</v>
-      </c>
-      <c r="O40" s="88">
-        <v>368.5</v>
+      <c r="M40" s="63">
+        <v>482.62499999999994</v>
+      </c>
+      <c r="N40" s="70">
+        <v>444.01499999999993</v>
+      </c>
+      <c r="O40" s="66">
+        <v>386.09999999999997</v>
       </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:16" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="6">
         <v>631</v>
       </c>
@@ -3712,25 +3654,23 @@
       <c r="L41" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="86">
-        <f t="shared" si="0"/>
-        <v>462.29999999999995</v>
-      </c>
-      <c r="N41" s="87">
-        <f t="shared" si="1"/>
-        <v>442.20000000000005</v>
-      </c>
-      <c r="O41" s="88">
-        <v>402</v>
+      <c r="M41" s="63">
+        <v>536.25</v>
+      </c>
+      <c r="N41" s="70">
+        <v>493.34999999999997</v>
+      </c>
+      <c r="O41" s="66">
+        <v>429</v>
       </c>
       <c r="P41" s="35"/>
     </row>
     <row r="42" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="4">
         <v>631</v>
       </c>
@@ -3750,25 +3690,23 @@
       <c r="L42" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="86">
-        <f t="shared" si="0"/>
-        <v>189.74999999999997</v>
-      </c>
-      <c r="N42" s="87">
-        <f t="shared" si="1"/>
-        <v>181.50000000000003</v>
-      </c>
-      <c r="O42" s="89">
-        <v>165</v>
+      <c r="M42" s="63">
+        <v>208</v>
+      </c>
+      <c r="N42" s="70">
+        <v>191.35999999999999</v>
+      </c>
+      <c r="O42" s="67">
+        <v>166.4</v>
       </c>
       <c r="P42" s="33"/>
     </row>
     <row r="43" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="4"/>
       <c r="G43" s="44" t="s">
         <v>35</v>
@@ -3786,25 +3724,23 @@
       <c r="L43" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M43" s="86">
-        <f t="shared" si="0"/>
-        <v>252.99999999999997</v>
-      </c>
-      <c r="N43" s="87">
-        <f t="shared" si="1"/>
-        <v>242.00000000000003</v>
-      </c>
-      <c r="O43" s="89">
-        <v>220</v>
+      <c r="M43" s="63">
+        <v>260</v>
+      </c>
+      <c r="N43" s="70">
+        <v>239.2</v>
+      </c>
+      <c r="O43" s="67">
+        <v>208</v>
       </c>
       <c r="P43" s="33"/>
     </row>
     <row r="44" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="4">
         <v>631</v>
       </c>
@@ -3824,25 +3760,23 @@
       <c r="L44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="M44" s="86">
-        <f t="shared" si="0"/>
-        <v>284.625</v>
-      </c>
-      <c r="N44" s="87">
-        <f t="shared" si="1"/>
-        <v>272.25</v>
-      </c>
-      <c r="O44" s="89">
-        <v>247.5</v>
+      <c r="M44" s="63">
+        <v>315.25</v>
+      </c>
+      <c r="N44" s="70">
+        <v>290.02999999999997</v>
+      </c>
+      <c r="O44" s="67">
+        <v>252.2</v>
       </c>
       <c r="P44" s="33"/>
     </row>
     <row r="45" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="4">
         <v>631</v>
       </c>
@@ -3862,25 +3796,23 @@
       <c r="L45" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="M45" s="86">
-        <f t="shared" si="0"/>
-        <v>347.875</v>
-      </c>
-      <c r="N45" s="87">
-        <f t="shared" si="1"/>
-        <v>332.75</v>
-      </c>
-      <c r="O45" s="89">
-        <v>302.5</v>
+      <c r="M45" s="63">
+        <v>380.25</v>
+      </c>
+      <c r="N45" s="70">
+        <v>349.83</v>
+      </c>
+      <c r="O45" s="67">
+        <v>304.2</v>
       </c>
       <c r="P45" s="33"/>
     </row>
     <row r="46" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="4">
         <v>631</v>
       </c>
@@ -3900,25 +3832,23 @@
       <c r="L46" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M46" s="86">
-        <f t="shared" si="0"/>
-        <v>379.49999999999994</v>
-      </c>
-      <c r="N46" s="87">
-        <f t="shared" si="1"/>
-        <v>363.00000000000006</v>
-      </c>
-      <c r="O46" s="89">
-        <v>330</v>
+      <c r="M46" s="63">
+        <v>422.5</v>
+      </c>
+      <c r="N46" s="70">
+        <v>388.7</v>
+      </c>
+      <c r="O46" s="67">
+        <v>338</v>
       </c>
       <c r="P46" s="33"/>
     </row>
     <row r="47" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="4">
         <v>631</v>
       </c>
@@ -3938,25 +3868,23 @@
       <c r="L47" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="86">
-        <f t="shared" si="0"/>
-        <v>227.68275</v>
-      </c>
-      <c r="N47" s="87">
-        <f t="shared" si="1"/>
-        <v>217.78350000000003</v>
-      </c>
-      <c r="O47" s="88">
-        <v>197.98500000000001</v>
+      <c r="M47" s="63">
+        <v>243.78749999999999</v>
+      </c>
+      <c r="N47" s="70">
+        <v>224.28449999999998</v>
+      </c>
+      <c r="O47" s="66">
+        <v>195.03</v>
       </c>
       <c r="P47" s="33"/>
     </row>
     <row r="48" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="4">
         <v>631</v>
       </c>
@@ -3976,25 +3904,23 @@
       <c r="L48" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="86">
-        <f t="shared" si="0"/>
-        <v>273.52749999999997</v>
-      </c>
-      <c r="N48" s="87">
-        <f t="shared" si="1"/>
-        <v>261.63499999999999</v>
-      </c>
-      <c r="O48" s="88">
-        <v>237.85</v>
+      <c r="M48" s="63">
+        <v>292.875</v>
+      </c>
+      <c r="N48" s="70">
+        <v>269.44499999999994</v>
+      </c>
+      <c r="O48" s="66">
+        <v>234.29999999999998</v>
       </c>
       <c r="P48" s="33"/>
     </row>
     <row r="49" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="4"/>
       <c r="G49" s="39" t="s">
         <v>35</v>
@@ -4012,25 +3938,23 @@
       <c r="L49" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M49" s="86">
-        <f t="shared" si="0"/>
-        <v>342.8725</v>
-      </c>
-      <c r="N49" s="87">
-        <f t="shared" si="1"/>
-        <v>327.96500000000009</v>
-      </c>
-      <c r="O49" s="88">
-        <v>298.15000000000003</v>
+      <c r="M49" s="63">
+        <v>367.125</v>
+      </c>
+      <c r="N49" s="70">
+        <v>337.75499999999994</v>
+      </c>
+      <c r="O49" s="66">
+        <v>293.7</v>
       </c>
       <c r="P49" s="33"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
       <c r="F50" s="4">
         <v>631</v>
       </c>
@@ -4050,25 +3974,23 @@
       <c r="L50" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="M50" s="86">
-        <f t="shared" si="0"/>
-        <v>511.52</v>
-      </c>
-      <c r="N50" s="87">
-        <f t="shared" si="1"/>
-        <v>489.28000000000003</v>
-      </c>
-      <c r="O50" s="90">
-        <v>444.8</v>
+      <c r="M50" s="63">
+        <v>538.625</v>
+      </c>
+      <c r="N50" s="70">
+        <v>495.53500000000003</v>
+      </c>
+      <c r="O50" s="68">
+        <v>430.90000000000003</v>
       </c>
       <c r="P50" s="33"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="70" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="79" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="4"/>
@@ -4088,25 +4010,23 @@
       <c r="L51" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="M51" s="86">
-        <f t="shared" si="0"/>
-        <v>412.21749999999997</v>
-      </c>
-      <c r="N51" s="87">
-        <f t="shared" si="1"/>
-        <v>394.29500000000002</v>
-      </c>
-      <c r="O51" s="88">
-        <v>358.45</v>
+      <c r="M51" s="63">
+        <v>441.37499999999994</v>
+      </c>
+      <c r="N51" s="70">
+        <v>406.06499999999994</v>
+      </c>
+      <c r="O51" s="66">
+        <v>353.09999999999997</v>
       </c>
       <c r="P51" s="33"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="71"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="4"/>
       <c r="G52" s="39" t="s">
         <v>35</v>
@@ -4124,25 +4044,23 @@
       <c r="L52" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="86">
-        <f t="shared" si="0"/>
-        <v>458.44749999999999</v>
-      </c>
-      <c r="N52" s="87">
-        <f t="shared" si="1"/>
-        <v>438.5150000000001</v>
-      </c>
-      <c r="O52" s="88">
-        <v>398.65000000000003</v>
+      <c r="M52" s="63">
+        <v>490.875</v>
+      </c>
+      <c r="N52" s="70">
+        <v>451.60499999999996</v>
+      </c>
+      <c r="O52" s="66">
+        <v>392.7</v>
       </c>
       <c r="P52" s="33"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="71"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="4"/>
       <c r="G53" s="39" t="s">
         <v>35</v>
@@ -4160,25 +4078,23 @@
       <c r="L53" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M53" s="86">
-        <f t="shared" si="0"/>
-        <v>712.71249999999998</v>
-      </c>
-      <c r="N53" s="87">
-        <f t="shared" si="1"/>
-        <v>681.72500000000002</v>
-      </c>
-      <c r="O53" s="91">
-        <v>619.75</v>
+      <c r="M53" s="63">
+        <v>763.125</v>
+      </c>
+      <c r="N53" s="70">
+        <v>702.07499999999993</v>
+      </c>
+      <c r="O53" s="69">
+        <v>610.5</v>
       </c>
       <c r="P53" s="33"/>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="71"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="4"/>
       <c r="G54" s="44" t="s">
         <v>35</v>
@@ -4196,25 +4112,23 @@
       <c r="L54" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="86">
-        <f t="shared" si="0"/>
-        <v>161.28749999999999</v>
-      </c>
-      <c r="N54" s="87">
-        <f t="shared" si="1"/>
-        <v>154.27500000000001</v>
-      </c>
-      <c r="O54" s="89">
-        <v>140.25</v>
+      <c r="M54" s="63">
+        <v>165.75</v>
+      </c>
+      <c r="N54" s="70">
+        <v>152.48999999999998</v>
+      </c>
+      <c r="O54" s="67">
+        <v>132.6</v>
       </c>
       <c r="P54" s="33"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="71"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="80"/>
       <c r="F55" s="4"/>
       <c r="G55" s="44" t="s">
         <v>35</v>
@@ -4232,25 +4146,23 @@
       <c r="L55" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M55" s="86">
-        <f t="shared" si="0"/>
-        <v>189.74999999999997</v>
-      </c>
-      <c r="N55" s="87">
-        <f t="shared" si="1"/>
-        <v>181.50000000000003</v>
-      </c>
-      <c r="O55" s="89">
-        <v>165</v>
+      <c r="M55" s="63">
+        <v>195</v>
+      </c>
+      <c r="N55" s="70">
+        <v>179.39999999999998</v>
+      </c>
+      <c r="O55" s="67">
+        <v>156</v>
       </c>
       <c r="P55" s="33"/>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="71"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="4"/>
       <c r="G56" s="44" t="s">
         <v>35</v>
@@ -4268,25 +4180,23 @@
       <c r="L56" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="M56" s="86">
-        <f t="shared" si="0"/>
-        <v>234.02499999999998</v>
-      </c>
-      <c r="N56" s="87">
-        <f t="shared" si="1"/>
-        <v>223.85000000000002</v>
-      </c>
-      <c r="O56" s="89">
-        <v>203.5</v>
+      <c r="M56" s="63">
+        <v>240.5</v>
+      </c>
+      <c r="N56" s="70">
+        <v>221.26</v>
+      </c>
+      <c r="O56" s="67">
+        <v>192.4</v>
       </c>
       <c r="P56" s="33"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="71"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="4"/>
       <c r="G57" s="44" t="s">
         <v>35</v>
@@ -4304,25 +4214,23 @@
       <c r="L57" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="M57" s="86">
-        <f t="shared" si="0"/>
-        <v>284.625</v>
-      </c>
-      <c r="N57" s="87">
-        <f t="shared" si="1"/>
-        <v>272.25</v>
-      </c>
-      <c r="O57" s="89">
-        <v>247.5</v>
+      <c r="M57" s="63">
+        <v>292.5</v>
+      </c>
+      <c r="N57" s="70">
+        <v>269.09999999999997</v>
+      </c>
+      <c r="O57" s="67">
+        <v>234</v>
       </c>
       <c r="P57" s="33"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="71"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="4"/>
       <c r="G58" s="44" t="s">
         <v>35</v>
@@ -4340,16 +4248,14 @@
       <c r="L58" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="M58" s="86">
-        <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="N58" s="87">
-        <f t="shared" si="1"/>
-        <v>302.5</v>
-      </c>
-      <c r="O58" s="89">
-        <v>275</v>
+      <c r="M58" s="63">
+        <v>325</v>
+      </c>
+      <c r="N58" s="70">
+        <v>299</v>
+      </c>
+      <c r="O58" s="67">
+        <v>260</v>
       </c>
       <c r="P58" s="33"/>
     </row>
